--- a/admin_tools/Namelist_template.xlsx
+++ b/admin_tools/Namelist_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4ADBDB-7456-48FD-B599-6641868D86EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D593E-70C4-4735-BA22-E259E3C09BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41C54C06-08CA-4247-BDD9-01ECA49A2627}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41C54C06-08CA-4247-BDD9-01ECA49A2627}"/>
   </bookViews>
   <sheets>
     <sheet name="Namelist" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,1519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>UserId</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
+  </si>
+  <si>
+    <t>User6</t>
+  </si>
+  <si>
+    <t>User7</t>
+  </si>
+  <si>
+    <t>User8</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>User10</t>
+  </si>
+  <si>
+    <t>User11</t>
+  </si>
+  <si>
+    <t>User12</t>
+  </si>
+  <si>
+    <t>User13</t>
+  </si>
+  <si>
+    <t>User14</t>
+  </si>
+  <si>
+    <t>User15</t>
+  </si>
+  <si>
+    <t>User16</t>
+  </si>
+  <si>
+    <t>User17</t>
+  </si>
+  <si>
+    <t>User18</t>
+  </si>
+  <si>
+    <t>User19</t>
+  </si>
+  <si>
+    <t>User20</t>
+  </si>
+  <si>
+    <t>User21</t>
+  </si>
+  <si>
+    <t>User22</t>
+  </si>
+  <si>
+    <t>User23</t>
+  </si>
+  <si>
+    <t>User24</t>
+  </si>
+  <si>
+    <t>User25</t>
+  </si>
+  <si>
+    <t>User26</t>
+  </si>
+  <si>
+    <t>User27</t>
+  </si>
+  <si>
+    <t>User28</t>
+  </si>
+  <si>
+    <t>User29</t>
+  </si>
+  <si>
+    <t>User30</t>
+  </si>
+  <si>
+    <t>User31</t>
+  </si>
+  <si>
+    <t>User32</t>
+  </si>
+  <si>
+    <t>User33</t>
+  </si>
+  <si>
+    <t>User34</t>
+  </si>
+  <si>
+    <t>User35</t>
+  </si>
+  <si>
+    <t>User36</t>
+  </si>
+  <si>
+    <t>User37</t>
+  </si>
+  <si>
+    <t>User38</t>
+  </si>
+  <si>
+    <t>User39</t>
+  </si>
+  <si>
+    <t>User40</t>
+  </si>
+  <si>
+    <t>User41</t>
+  </si>
+  <si>
+    <t>User42</t>
+  </si>
+  <si>
+    <t>User43</t>
+  </si>
+  <si>
+    <t>User44</t>
+  </si>
+  <si>
+    <t>User45</t>
+  </si>
+  <si>
+    <t>User46</t>
+  </si>
+  <si>
+    <t>User47</t>
+  </si>
+  <si>
+    <t>User48</t>
+  </si>
+  <si>
+    <t>User49</t>
+  </si>
+  <si>
+    <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
+  </si>
+  <si>
+    <t>User86</t>
+  </si>
+  <si>
+    <t>User87</t>
+  </si>
+  <si>
+    <t>User88</t>
+  </si>
+  <si>
+    <t>User89</t>
+  </si>
+  <si>
+    <t>User90</t>
+  </si>
+  <si>
+    <t>User91</t>
+  </si>
+  <si>
+    <t>User92</t>
+  </si>
+  <si>
+    <t>User93</t>
+  </si>
+  <si>
+    <t>User94</t>
+  </si>
+  <si>
+    <t>User95</t>
+  </si>
+  <si>
+    <t>User96</t>
+  </si>
+  <si>
+    <t>User97</t>
+  </si>
+  <si>
+    <t>User98</t>
+  </si>
+  <si>
+    <t>User99</t>
+  </si>
+  <si>
+    <t>User100</t>
+  </si>
+  <si>
+    <t>User101</t>
+  </si>
+  <si>
+    <t>User102</t>
+  </si>
+  <si>
+    <t>User103</t>
+  </si>
+  <si>
+    <t>User104</t>
+  </si>
+  <si>
+    <t>User105</t>
+  </si>
+  <si>
+    <t>User106</t>
+  </si>
+  <si>
+    <t>User107</t>
+  </si>
+  <si>
+    <t>User108</t>
+  </si>
+  <si>
+    <t>User109</t>
+  </si>
+  <si>
+    <t>User110</t>
+  </si>
+  <si>
+    <t>User111</t>
+  </si>
+  <si>
+    <t>User112</t>
+  </si>
+  <si>
+    <t>User113</t>
+  </si>
+  <si>
+    <t>User114</t>
+  </si>
+  <si>
+    <t>User115</t>
+  </si>
+  <si>
+    <t>User116</t>
+  </si>
+  <si>
+    <t>User117</t>
+  </si>
+  <si>
+    <t>User118</t>
+  </si>
+  <si>
+    <t>User119</t>
+  </si>
+  <si>
+    <t>User120</t>
+  </si>
+  <si>
+    <t>User121</t>
+  </si>
+  <si>
+    <t>User122</t>
+  </si>
+  <si>
+    <t>User123</t>
+  </si>
+  <si>
+    <t>User124</t>
+  </si>
+  <si>
+    <t>User125</t>
+  </si>
+  <si>
+    <t>User126</t>
+  </si>
+  <si>
+    <t>User127</t>
+  </si>
+  <si>
+    <t>User128</t>
+  </si>
+  <si>
+    <t>User129</t>
+  </si>
+  <si>
+    <t>User130</t>
+  </si>
+  <si>
+    <t>User131</t>
+  </si>
+  <si>
+    <t>User132</t>
+  </si>
+  <si>
+    <t>User133</t>
+  </si>
+  <si>
+    <t>User134</t>
+  </si>
+  <si>
+    <t>User135</t>
+  </si>
+  <si>
+    <t>User136</t>
+  </si>
+  <si>
+    <t>User137</t>
+  </si>
+  <si>
+    <t>User138</t>
+  </si>
+  <si>
+    <t>User139</t>
+  </si>
+  <si>
+    <t>User140</t>
+  </si>
+  <si>
+    <t>User141</t>
+  </si>
+  <si>
+    <t>User142</t>
+  </si>
+  <si>
+    <t>User143</t>
+  </si>
+  <si>
+    <t>User144</t>
+  </si>
+  <si>
+    <t>User145</t>
+  </si>
+  <si>
+    <t>User146</t>
+  </si>
+  <si>
+    <t>User147</t>
+  </si>
+  <si>
+    <t>User148</t>
+  </si>
+  <si>
+    <t>User149</t>
+  </si>
+  <si>
+    <t>User150</t>
+  </si>
+  <si>
+    <t>User151</t>
+  </si>
+  <si>
+    <t>User152</t>
+  </si>
+  <si>
+    <t>User153</t>
+  </si>
+  <si>
+    <t>User154</t>
+  </si>
+  <si>
+    <t>User155</t>
+  </si>
+  <si>
+    <t>User156</t>
+  </si>
+  <si>
+    <t>User157</t>
+  </si>
+  <si>
+    <t>User158</t>
+  </si>
+  <si>
+    <t>User159</t>
+  </si>
+  <si>
+    <t>User160</t>
+  </si>
+  <si>
+    <t>User161</t>
+  </si>
+  <si>
+    <t>User162</t>
+  </si>
+  <si>
+    <t>User163</t>
+  </si>
+  <si>
+    <t>User164</t>
+  </si>
+  <si>
+    <t>User165</t>
+  </si>
+  <si>
+    <t>User166</t>
+  </si>
+  <si>
+    <t>User167</t>
+  </si>
+  <si>
+    <t>User168</t>
+  </si>
+  <si>
+    <t>User169</t>
+  </si>
+  <si>
+    <t>User170</t>
+  </si>
+  <si>
+    <t>User171</t>
+  </si>
+  <si>
+    <t>User172</t>
+  </si>
+  <si>
+    <t>User173</t>
+  </si>
+  <si>
+    <t>User174</t>
+  </si>
+  <si>
+    <t>User175</t>
+  </si>
+  <si>
+    <t>User176</t>
+  </si>
+  <si>
+    <t>User177</t>
+  </si>
+  <si>
+    <t>User178</t>
+  </si>
+  <si>
+    <t>User179</t>
+  </si>
+  <si>
+    <t>User180</t>
+  </si>
+  <si>
+    <t>User181</t>
+  </si>
+  <si>
+    <t>User182</t>
+  </si>
+  <si>
+    <t>User183</t>
+  </si>
+  <si>
+    <t>User184</t>
+  </si>
+  <si>
+    <t>User185</t>
+  </si>
+  <si>
+    <t>User186</t>
+  </si>
+  <si>
+    <t>User187</t>
+  </si>
+  <si>
+    <t>User188</t>
+  </si>
+  <si>
+    <t>User189</t>
+  </si>
+  <si>
+    <t>User190</t>
+  </si>
+  <si>
+    <t>User191</t>
+  </si>
+  <si>
+    <t>User192</t>
+  </si>
+  <si>
+    <t>User193</t>
+  </si>
+  <si>
+    <t>User194</t>
+  </si>
+  <si>
+    <t>User195</t>
+  </si>
+  <si>
+    <t>User196</t>
+  </si>
+  <si>
+    <t>User197</t>
+  </si>
+  <si>
+    <t>User198</t>
+  </si>
+  <si>
+    <t>User199</t>
+  </si>
+  <si>
+    <t>User200</t>
+  </si>
+  <si>
+    <t>User201</t>
+  </si>
+  <si>
+    <t>User202</t>
+  </si>
+  <si>
+    <t>User203</t>
+  </si>
+  <si>
+    <t>User204</t>
+  </si>
+  <si>
+    <t>User205</t>
+  </si>
+  <si>
+    <t>User206</t>
+  </si>
+  <si>
+    <t>User207</t>
+  </si>
+  <si>
+    <t>User208</t>
+  </si>
+  <si>
+    <t>User209</t>
+  </si>
+  <si>
+    <t>User210</t>
+  </si>
+  <si>
+    <t>User211</t>
+  </si>
+  <si>
+    <t>User212</t>
+  </si>
+  <si>
+    <t>User213</t>
+  </si>
+  <si>
+    <t>User214</t>
+  </si>
+  <si>
+    <t>User215</t>
+  </si>
+  <si>
+    <t>User216</t>
+  </si>
+  <si>
+    <t>User217</t>
+  </si>
+  <si>
+    <t>User218</t>
+  </si>
+  <si>
+    <t>User219</t>
+  </si>
+  <si>
+    <t>User220</t>
+  </si>
+  <si>
+    <t>User221</t>
+  </si>
+  <si>
+    <t>User222</t>
+  </si>
+  <si>
+    <t>User223</t>
+  </si>
+  <si>
+    <t>User224</t>
+  </si>
+  <si>
+    <t>User225</t>
+  </si>
+  <si>
+    <t>User226</t>
+  </si>
+  <si>
+    <t>User227</t>
+  </si>
+  <si>
+    <t>User228</t>
+  </si>
+  <si>
+    <t>User229</t>
+  </si>
+  <si>
+    <t>User230</t>
+  </si>
+  <si>
+    <t>User231</t>
+  </si>
+  <si>
+    <t>User232</t>
+  </si>
+  <si>
+    <t>User233</t>
+  </si>
+  <si>
+    <t>User234</t>
+  </si>
+  <si>
+    <t>User235</t>
+  </si>
+  <si>
+    <t>User236</t>
+  </si>
+  <si>
+    <t>User237</t>
+  </si>
+  <si>
+    <t>User238</t>
+  </si>
+  <si>
+    <t>User239</t>
+  </si>
+  <si>
+    <t>User240</t>
+  </si>
+  <si>
+    <t>User241</t>
+  </si>
+  <si>
+    <t>User242</t>
+  </si>
+  <si>
+    <t>User243</t>
+  </si>
+  <si>
+    <t>User244</t>
+  </si>
+  <si>
+    <t>User245</t>
+  </si>
+  <si>
+    <t>User246</t>
+  </si>
+  <si>
+    <t>User247</t>
+  </si>
+  <si>
+    <t>User248</t>
+  </si>
+  <si>
+    <t>User249</t>
+  </si>
+  <si>
+    <t>User250</t>
+  </si>
+  <si>
+    <t>User251</t>
+  </si>
+  <si>
+    <t>User252</t>
+  </si>
+  <si>
+    <t>User253</t>
+  </si>
+  <si>
+    <t>User254</t>
+  </si>
+  <si>
+    <t>User255</t>
+  </si>
+  <si>
+    <t>User256</t>
+  </si>
+  <si>
+    <t>User257</t>
+  </si>
+  <si>
+    <t>User258</t>
+  </si>
+  <si>
+    <t>User259</t>
+  </si>
+  <si>
+    <t>User260</t>
+  </si>
+  <si>
+    <t>User261</t>
+  </si>
+  <si>
+    <t>User262</t>
+  </si>
+  <si>
+    <t>User263</t>
+  </si>
+  <si>
+    <t>User264</t>
+  </si>
+  <si>
+    <t>User265</t>
+  </si>
+  <si>
+    <t>User266</t>
+  </si>
+  <si>
+    <t>User267</t>
+  </si>
+  <si>
+    <t>User268</t>
+  </si>
+  <si>
+    <t>User269</t>
+  </si>
+  <si>
+    <t>User270</t>
+  </si>
+  <si>
+    <t>User271</t>
+  </si>
+  <si>
+    <t>User272</t>
+  </si>
+  <si>
+    <t>User273</t>
+  </si>
+  <si>
+    <t>User274</t>
+  </si>
+  <si>
+    <t>User275</t>
+  </si>
+  <si>
+    <t>User276</t>
+  </si>
+  <si>
+    <t>User277</t>
+  </si>
+  <si>
+    <t>User278</t>
+  </si>
+  <si>
+    <t>User279</t>
+  </si>
+  <si>
+    <t>User280</t>
+  </si>
+  <si>
+    <t>User281</t>
+  </si>
+  <si>
+    <t>User282</t>
+  </si>
+  <si>
+    <t>User283</t>
+  </si>
+  <si>
+    <t>User284</t>
+  </si>
+  <si>
+    <t>User285</t>
+  </si>
+  <si>
+    <t>User286</t>
+  </si>
+  <si>
+    <t>User287</t>
+  </si>
+  <si>
+    <t>User288</t>
+  </si>
+  <si>
+    <t>User289</t>
+  </si>
+  <si>
+    <t>User290</t>
+  </si>
+  <si>
+    <t>User291</t>
+  </si>
+  <si>
+    <t>User292</t>
+  </si>
+  <si>
+    <t>User293</t>
+  </si>
+  <si>
+    <t>User294</t>
+  </si>
+  <si>
+    <t>User295</t>
+  </si>
+  <si>
+    <t>User296</t>
+  </si>
+  <si>
+    <t>User297</t>
+  </si>
+  <si>
+    <t>User298</t>
+  </si>
+  <si>
+    <t>User299</t>
+  </si>
+  <si>
+    <t>User300</t>
+  </si>
+  <si>
+    <t>User301</t>
+  </si>
+  <si>
+    <t>User302</t>
+  </si>
+  <si>
+    <t>User303</t>
+  </si>
+  <si>
+    <t>User304</t>
+  </si>
+  <si>
+    <t>User305</t>
+  </si>
+  <si>
+    <t>User306</t>
+  </si>
+  <si>
+    <t>User307</t>
+  </si>
+  <si>
+    <t>User308</t>
+  </si>
+  <si>
+    <t>User309</t>
+  </si>
+  <si>
+    <t>User310</t>
+  </si>
+  <si>
+    <t>User311</t>
+  </si>
+  <si>
+    <t>User312</t>
+  </si>
+  <si>
+    <t>User313</t>
+  </si>
+  <si>
+    <t>User314</t>
+  </si>
+  <si>
+    <t>User315</t>
+  </si>
+  <si>
+    <t>User316</t>
+  </si>
+  <si>
+    <t>User317</t>
+  </si>
+  <si>
+    <t>User318</t>
+  </si>
+  <si>
+    <t>User319</t>
+  </si>
+  <si>
+    <t>User320</t>
+  </si>
+  <si>
+    <t>User321</t>
+  </si>
+  <si>
+    <t>User322</t>
+  </si>
+  <si>
+    <t>User323</t>
+  </si>
+  <si>
+    <t>User324</t>
+  </si>
+  <si>
+    <t>User325</t>
+  </si>
+  <si>
+    <t>User326</t>
+  </si>
+  <si>
+    <t>User327</t>
+  </si>
+  <si>
+    <t>User328</t>
+  </si>
+  <si>
+    <t>User329</t>
+  </si>
+  <si>
+    <t>User330</t>
+  </si>
+  <si>
+    <t>User331</t>
+  </si>
+  <si>
+    <t>User332</t>
+  </si>
+  <si>
+    <t>User333</t>
+  </si>
+  <si>
+    <t>User334</t>
+  </si>
+  <si>
+    <t>User335</t>
+  </si>
+  <si>
+    <t>User336</t>
+  </si>
+  <si>
+    <t>User337</t>
+  </si>
+  <si>
+    <t>User338</t>
+  </si>
+  <si>
+    <t>User339</t>
+  </si>
+  <si>
+    <t>User340</t>
+  </si>
+  <si>
+    <t>User341</t>
+  </si>
+  <si>
+    <t>User342</t>
+  </si>
+  <si>
+    <t>User343</t>
+  </si>
+  <si>
+    <t>User344</t>
+  </si>
+  <si>
+    <t>User345</t>
+  </si>
+  <si>
+    <t>User346</t>
+  </si>
+  <si>
+    <t>User347</t>
+  </si>
+  <si>
+    <t>User348</t>
+  </si>
+  <si>
+    <t>User349</t>
+  </si>
+  <si>
+    <t>User350</t>
+  </si>
+  <si>
+    <t>User351</t>
+  </si>
+  <si>
+    <t>User352</t>
+  </si>
+  <si>
+    <t>User353</t>
+  </si>
+  <si>
+    <t>User354</t>
+  </si>
+  <si>
+    <t>User355</t>
+  </si>
+  <si>
+    <t>User356</t>
+  </si>
+  <si>
+    <t>User357</t>
+  </si>
+  <si>
+    <t>User358</t>
+  </si>
+  <si>
+    <t>User359</t>
+  </si>
+  <si>
+    <t>User360</t>
+  </si>
+  <si>
+    <t>User361</t>
+  </si>
+  <si>
+    <t>User362</t>
+  </si>
+  <si>
+    <t>User363</t>
+  </si>
+  <si>
+    <t>User364</t>
+  </si>
+  <si>
+    <t>User365</t>
+  </si>
+  <si>
+    <t>User366</t>
+  </si>
+  <si>
+    <t>User367</t>
+  </si>
+  <si>
+    <t>User368</t>
+  </si>
+  <si>
+    <t>User369</t>
+  </si>
+  <si>
+    <t>User370</t>
+  </si>
+  <si>
+    <t>User371</t>
+  </si>
+  <si>
+    <t>User372</t>
+  </si>
+  <si>
+    <t>User373</t>
+  </si>
+  <si>
+    <t>User374</t>
+  </si>
+  <si>
+    <t>User375</t>
+  </si>
+  <si>
+    <t>User376</t>
+  </si>
+  <si>
+    <t>User377</t>
+  </si>
+  <si>
+    <t>User378</t>
+  </si>
+  <si>
+    <t>User379</t>
+  </si>
+  <si>
+    <t>User380</t>
+  </si>
+  <si>
+    <t>User381</t>
+  </si>
+  <si>
+    <t>User382</t>
+  </si>
+  <si>
+    <t>User383</t>
+  </si>
+  <si>
+    <t>User384</t>
+  </si>
+  <si>
+    <t>User385</t>
+  </si>
+  <si>
+    <t>User386</t>
+  </si>
+  <si>
+    <t>User387</t>
+  </si>
+  <si>
+    <t>User388</t>
+  </si>
+  <si>
+    <t>User389</t>
+  </si>
+  <si>
+    <t>User390</t>
+  </si>
+  <si>
+    <t>User391</t>
+  </si>
+  <si>
+    <t>User392</t>
+  </si>
+  <si>
+    <t>User393</t>
+  </si>
+  <si>
+    <t>User394</t>
+  </si>
+  <si>
+    <t>User395</t>
+  </si>
+  <si>
+    <t>User396</t>
+  </si>
+  <si>
+    <t>User397</t>
+  </si>
+  <si>
+    <t>User398</t>
+  </si>
+  <si>
+    <t>User399</t>
+  </si>
+  <si>
+    <t>User400</t>
+  </si>
+  <si>
+    <t>User401</t>
+  </si>
+  <si>
+    <t>User402</t>
+  </si>
+  <si>
+    <t>User403</t>
+  </si>
+  <si>
+    <t>User404</t>
+  </si>
+  <si>
+    <t>User405</t>
+  </si>
+  <si>
+    <t>User406</t>
+  </si>
+  <si>
+    <t>User407</t>
+  </si>
+  <si>
+    <t>User408</t>
+  </si>
+  <si>
+    <t>User409</t>
+  </si>
+  <si>
+    <t>User410</t>
+  </si>
+  <si>
+    <t>User411</t>
+  </si>
+  <si>
+    <t>User412</t>
+  </si>
+  <si>
+    <t>User413</t>
+  </si>
+  <si>
+    <t>User414</t>
+  </si>
+  <si>
+    <t>User415</t>
+  </si>
+  <si>
+    <t>User416</t>
+  </si>
+  <si>
+    <t>User417</t>
+  </si>
+  <si>
+    <t>User418</t>
+  </si>
+  <si>
+    <t>User419</t>
+  </si>
+  <si>
+    <t>User420</t>
+  </si>
+  <si>
+    <t>User421</t>
+  </si>
+  <si>
+    <t>User422</t>
+  </si>
+  <si>
+    <t>User423</t>
+  </si>
+  <si>
+    <t>User424</t>
+  </si>
+  <si>
+    <t>User425</t>
+  </si>
+  <si>
+    <t>User426</t>
+  </si>
+  <si>
+    <t>User427</t>
+  </si>
+  <si>
+    <t>User428</t>
+  </si>
+  <si>
+    <t>User429</t>
+  </si>
+  <si>
+    <t>User430</t>
+  </si>
+  <si>
+    <t>User431</t>
+  </si>
+  <si>
+    <t>User432</t>
+  </si>
+  <si>
+    <t>User433</t>
+  </si>
+  <si>
+    <t>User434</t>
+  </si>
+  <si>
+    <t>User435</t>
+  </si>
+  <si>
+    <t>User436</t>
+  </si>
+  <si>
+    <t>User437</t>
+  </si>
+  <si>
+    <t>User438</t>
+  </si>
+  <si>
+    <t>User439</t>
+  </si>
+  <si>
+    <t>User440</t>
+  </si>
+  <si>
+    <t>User441</t>
+  </si>
+  <si>
+    <t>User442</t>
+  </si>
+  <si>
+    <t>User443</t>
+  </si>
+  <si>
+    <t>User444</t>
+  </si>
+  <si>
+    <t>User445</t>
+  </si>
+  <si>
+    <t>User446</t>
+  </si>
+  <si>
+    <t>User447</t>
+  </si>
+  <si>
+    <t>User448</t>
+  </si>
+  <si>
+    <t>User449</t>
+  </si>
+  <si>
+    <t>User450</t>
+  </si>
+  <si>
+    <t>User451</t>
+  </si>
+  <si>
+    <t>User452</t>
+  </si>
+  <si>
+    <t>User453</t>
+  </si>
+  <si>
+    <t>User454</t>
+  </si>
+  <si>
+    <t>User455</t>
+  </si>
+  <si>
+    <t>User456</t>
+  </si>
+  <si>
+    <t>User457</t>
+  </si>
+  <si>
+    <t>User458</t>
+  </si>
+  <si>
+    <t>User459</t>
+  </si>
+  <si>
+    <t>User460</t>
+  </si>
+  <si>
+    <t>User461</t>
+  </si>
+  <si>
+    <t>User462</t>
+  </si>
+  <si>
+    <t>User463</t>
+  </si>
+  <si>
+    <t>User464</t>
+  </si>
+  <si>
+    <t>User465</t>
+  </si>
+  <si>
+    <t>User466</t>
+  </si>
+  <si>
+    <t>User467</t>
+  </si>
+  <si>
+    <t>User468</t>
+  </si>
+  <si>
+    <t>User469</t>
+  </si>
+  <si>
+    <t>User470</t>
+  </si>
+  <si>
+    <t>User471</t>
+  </si>
+  <si>
+    <t>User472</t>
+  </si>
+  <si>
+    <t>User473</t>
+  </si>
+  <si>
+    <t>User474</t>
+  </si>
+  <si>
+    <t>User475</t>
+  </si>
+  <si>
+    <t>User476</t>
+  </si>
+  <si>
+    <t>User477</t>
+  </si>
+  <si>
+    <t>User478</t>
+  </si>
+  <si>
+    <t>User479</t>
+  </si>
+  <si>
+    <t>User480</t>
+  </si>
+  <si>
+    <t>User481</t>
+  </si>
+  <si>
+    <t>User482</t>
+  </si>
+  <si>
+    <t>User483</t>
+  </si>
+  <si>
+    <t>User484</t>
+  </si>
+  <si>
+    <t>User485</t>
+  </si>
+  <si>
+    <t>User486</t>
+  </si>
+  <si>
+    <t>User487</t>
+  </si>
+  <si>
+    <t>User488</t>
+  </si>
+  <si>
+    <t>User489</t>
+  </si>
+  <si>
+    <t>User490</t>
+  </si>
+  <si>
+    <t>User491</t>
+  </si>
+  <si>
+    <t>User492</t>
+  </si>
+  <si>
+    <t>User493</t>
+  </si>
+  <si>
+    <t>User494</t>
+  </si>
+  <si>
+    <t>User495</t>
+  </si>
+  <si>
+    <t>User496</t>
+  </si>
+  <si>
+    <t>User497</t>
+  </si>
+  <si>
+    <t>User498</t>
+  </si>
+  <si>
+    <t>User499</t>
+  </si>
+  <si>
+    <t>User500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +1560,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -422,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FFB0A-68B6-4157-91EF-A2051B9795A2}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B501" sqref="B2:B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +1948,4008 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>140</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>172</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>178</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>179</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>202</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>211</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>213</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>214</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>215</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>217</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>224</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>225</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>229</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>234</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>235</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>236</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>237</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>238</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>239</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>240</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>241</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>242</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>243</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>244</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>245</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>246</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>247</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>248</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>249</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>250</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>251</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>252</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>256</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>258</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>259</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>260</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>261</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>262</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>263</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>264</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>265</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>266</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>267</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>268</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>269</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>271</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>272</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>273</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>274</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>275</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>276</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>277</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>278</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>279</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>280</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>281</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>282</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>283</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>284</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>285</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>286</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>287</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>288</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>289</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>290</v>
+      </c>
+      <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>291</v>
+      </c>
+      <c r="B193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>292</v>
+      </c>
+      <c r="B194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>293</v>
+      </c>
+      <c r="B195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>294</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>295</v>
+      </c>
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>296</v>
+      </c>
+      <c r="B198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>297</v>
+      </c>
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>298</v>
+      </c>
+      <c r="B200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>299</v>
+      </c>
+      <c r="B201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>300</v>
+      </c>
+      <c r="B202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>301</v>
+      </c>
+      <c r="B203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>302</v>
+      </c>
+      <c r="B204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>303</v>
+      </c>
+      <c r="B205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>304</v>
+      </c>
+      <c r="B206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>305</v>
+      </c>
+      <c r="B207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>306</v>
+      </c>
+      <c r="B208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>307</v>
+      </c>
+      <c r="B209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>308</v>
+      </c>
+      <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>309</v>
+      </c>
+      <c r="B211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>310</v>
+      </c>
+      <c r="B212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>311</v>
+      </c>
+      <c r="B213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>312</v>
+      </c>
+      <c r="B214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>313</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>314</v>
+      </c>
+      <c r="B216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>315</v>
+      </c>
+      <c r="B217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>316</v>
+      </c>
+      <c r="B218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>317</v>
+      </c>
+      <c r="B219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>318</v>
+      </c>
+      <c r="B220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>319</v>
+      </c>
+      <c r="B221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>320</v>
+      </c>
+      <c r="B222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>321</v>
+      </c>
+      <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>322</v>
+      </c>
+      <c r="B224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>323</v>
+      </c>
+      <c r="B225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>324</v>
+      </c>
+      <c r="B226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>325</v>
+      </c>
+      <c r="B227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>326</v>
+      </c>
+      <c r="B228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>327</v>
+      </c>
+      <c r="B229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>328</v>
+      </c>
+      <c r="B230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>329</v>
+      </c>
+      <c r="B231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>330</v>
+      </c>
+      <c r="B232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>331</v>
+      </c>
+      <c r="B233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>332</v>
+      </c>
+      <c r="B234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>333</v>
+      </c>
+      <c r="B235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>334</v>
+      </c>
+      <c r="B236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>335</v>
+      </c>
+      <c r="B237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>336</v>
+      </c>
+      <c r="B238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>337</v>
+      </c>
+      <c r="B239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>338</v>
+      </c>
+      <c r="B240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>339</v>
+      </c>
+      <c r="B241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>340</v>
+      </c>
+      <c r="B242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>341</v>
+      </c>
+      <c r="B243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>342</v>
+      </c>
+      <c r="B244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>343</v>
+      </c>
+      <c r="B245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>344</v>
+      </c>
+      <c r="B246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>345</v>
+      </c>
+      <c r="B247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>346</v>
+      </c>
+      <c r="B248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>347</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>348</v>
+      </c>
+      <c r="B250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>349</v>
+      </c>
+      <c r="B251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>350</v>
+      </c>
+      <c r="B252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>351</v>
+      </c>
+      <c r="B253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>352</v>
+      </c>
+      <c r="B254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>353</v>
+      </c>
+      <c r="B255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>354</v>
+      </c>
+      <c r="B256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>355</v>
+      </c>
+      <c r="B257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>356</v>
+      </c>
+      <c r="B258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>357</v>
+      </c>
+      <c r="B259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>358</v>
+      </c>
+      <c r="B260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>359</v>
+      </c>
+      <c r="B261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>360</v>
+      </c>
+      <c r="B262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>361</v>
+      </c>
+      <c r="B263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>362</v>
+      </c>
+      <c r="B264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>363</v>
+      </c>
+      <c r="B265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>364</v>
+      </c>
+      <c r="B266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>365</v>
+      </c>
+      <c r="B267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>366</v>
+      </c>
+      <c r="B268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>367</v>
+      </c>
+      <c r="B269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>368</v>
+      </c>
+      <c r="B270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>369</v>
+      </c>
+      <c r="B271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>370</v>
+      </c>
+      <c r="B272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>371</v>
+      </c>
+      <c r="B273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>372</v>
+      </c>
+      <c r="B274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>373</v>
+      </c>
+      <c r="B275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>374</v>
+      </c>
+      <c r="B276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>375</v>
+      </c>
+      <c r="B277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>376</v>
+      </c>
+      <c r="B278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>377</v>
+      </c>
+      <c r="B279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>378</v>
+      </c>
+      <c r="B280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>379</v>
+      </c>
+      <c r="B281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>380</v>
+      </c>
+      <c r="B282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>381</v>
+      </c>
+      <c r="B283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>382</v>
+      </c>
+      <c r="B284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>383</v>
+      </c>
+      <c r="B285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>384</v>
+      </c>
+      <c r="B286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>385</v>
+      </c>
+      <c r="B287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>386</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>387</v>
+      </c>
+      <c r="B289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>388</v>
+      </c>
+      <c r="B290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>389</v>
+      </c>
+      <c r="B291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>390</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>391</v>
+      </c>
+      <c r="B293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>392</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>393</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>394</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>395</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>396</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>397</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>398</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>399</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>400</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>401</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>402</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>403</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>404</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>405</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>406</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>407</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>408</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>409</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>410</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>411</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>412</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>413</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>414</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>415</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>416</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>417</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>418</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>419</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>420</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>421</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>422</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>423</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>424</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>425</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>426</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>427</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>428</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>429</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>430</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>431</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>432</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>433</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>434</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>435</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>436</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>437</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>438</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>439</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>440</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>441</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>442</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>443</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>444</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>445</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>446</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>447</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>448</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>449</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>450</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>451</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>452</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>453</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>454</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>455</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>456</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>457</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>458</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>459</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>460</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>461</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>462</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>463</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>464</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>465</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>466</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>467</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>468</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>469</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>470</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>471</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>472</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>473</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>474</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>475</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>476</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>477</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>478</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>479</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>480</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>481</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>482</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>483</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>484</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>485</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>486</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>487</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>488</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>489</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>490</v>
+      </c>
+      <c r="B392" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>491</v>
+      </c>
+      <c r="B393" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>492</v>
+      </c>
+      <c r="B394" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>493</v>
+      </c>
+      <c r="B395" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>494</v>
+      </c>
+      <c r="B396" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>495</v>
+      </c>
+      <c r="B397" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>496</v>
+      </c>
+      <c r="B398" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>497</v>
+      </c>
+      <c r="B399" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>498</v>
+      </c>
+      <c r="B400" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>499</v>
+      </c>
+      <c r="B401" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>500</v>
+      </c>
+      <c r="B402" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>501</v>
+      </c>
+      <c r="B403" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>502</v>
+      </c>
+      <c r="B404" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>503</v>
+      </c>
+      <c r="B405" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>504</v>
+      </c>
+      <c r="B406" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>505</v>
+      </c>
+      <c r="B407" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>506</v>
+      </c>
+      <c r="B408" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>507</v>
+      </c>
+      <c r="B409" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>508</v>
+      </c>
+      <c r="B410" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>509</v>
+      </c>
+      <c r="B411" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>510</v>
+      </c>
+      <c r="B412" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>511</v>
+      </c>
+      <c r="B413" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>512</v>
+      </c>
+      <c r="B414" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>513</v>
+      </c>
+      <c r="B415" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>514</v>
+      </c>
+      <c r="B416" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>515</v>
+      </c>
+      <c r="B417" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>516</v>
+      </c>
+      <c r="B418" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>517</v>
+      </c>
+      <c r="B419" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>518</v>
+      </c>
+      <c r="B420" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>519</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>520</v>
+      </c>
+      <c r="B422" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>521</v>
+      </c>
+      <c r="B423" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>522</v>
+      </c>
+      <c r="B424" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>523</v>
+      </c>
+      <c r="B425" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>524</v>
+      </c>
+      <c r="B426" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>525</v>
+      </c>
+      <c r="B427" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>526</v>
+      </c>
+      <c r="B428" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>527</v>
+      </c>
+      <c r="B429" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>528</v>
+      </c>
+      <c r="B430" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>529</v>
+      </c>
+      <c r="B431" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>530</v>
+      </c>
+      <c r="B432" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>531</v>
+      </c>
+      <c r="B433" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>532</v>
+      </c>
+      <c r="B434" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>533</v>
+      </c>
+      <c r="B435" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>534</v>
+      </c>
+      <c r="B436" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>535</v>
+      </c>
+      <c r="B437" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>536</v>
+      </c>
+      <c r="B438" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>537</v>
+      </c>
+      <c r="B439" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>538</v>
+      </c>
+      <c r="B440" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>539</v>
+      </c>
+      <c r="B441" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>540</v>
+      </c>
+      <c r="B442" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>541</v>
+      </c>
+      <c r="B443" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>542</v>
+      </c>
+      <c r="B444" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>543</v>
+      </c>
+      <c r="B445" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>544</v>
+      </c>
+      <c r="B446" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>545</v>
+      </c>
+      <c r="B447" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>546</v>
+      </c>
+      <c r="B448" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>547</v>
+      </c>
+      <c r="B449" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>548</v>
+      </c>
+      <c r="B450" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>549</v>
+      </c>
+      <c r="B451" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>550</v>
+      </c>
+      <c r="B452" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>551</v>
+      </c>
+      <c r="B453" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>552</v>
+      </c>
+      <c r="B454" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>553</v>
+      </c>
+      <c r="B455" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>554</v>
+      </c>
+      <c r="B456" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>555</v>
+      </c>
+      <c r="B457" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>556</v>
+      </c>
+      <c r="B458" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>557</v>
+      </c>
+      <c r="B459" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>558</v>
+      </c>
+      <c r="B460" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>559</v>
+      </c>
+      <c r="B461" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>560</v>
+      </c>
+      <c r="B462" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>561</v>
+      </c>
+      <c r="B463" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>562</v>
+      </c>
+      <c r="B464" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>563</v>
+      </c>
+      <c r="B465" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>564</v>
+      </c>
+      <c r="B466" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>565</v>
+      </c>
+      <c r="B467" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>566</v>
+      </c>
+      <c r="B468" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>567</v>
+      </c>
+      <c r="B469" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>568</v>
+      </c>
+      <c r="B470" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>569</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>570</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>571</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>572</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>573</v>
+      </c>
+      <c r="B475" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>574</v>
+      </c>
+      <c r="B476" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>575</v>
+      </c>
+      <c r="B477" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>576</v>
+      </c>
+      <c r="B478" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>577</v>
+      </c>
+      <c r="B479" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>578</v>
+      </c>
+      <c r="B480" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>579</v>
+      </c>
+      <c r="B481" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>580</v>
+      </c>
+      <c r="B482" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>581</v>
+      </c>
+      <c r="B483" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>582</v>
+      </c>
+      <c r="B484" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>583</v>
+      </c>
+      <c r="B485" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>584</v>
+      </c>
+      <c r="B486" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>585</v>
+      </c>
+      <c r="B487" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>586</v>
+      </c>
+      <c r="B488" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>587</v>
+      </c>
+      <c r="B489" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>588</v>
+      </c>
+      <c r="B490" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>589</v>
+      </c>
+      <c r="B491" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>590</v>
+      </c>
+      <c r="B492" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>591</v>
+      </c>
+      <c r="B493" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>592</v>
+      </c>
+      <c r="B494" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>593</v>
+      </c>
+      <c r="B495" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>594</v>
+      </c>
+      <c r="B496" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>595</v>
+      </c>
+      <c r="B497" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>596</v>
+      </c>
+      <c r="B498" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>597</v>
+      </c>
+      <c r="B499" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>598</v>
+      </c>
+      <c r="B500" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>599</v>
+      </c>
+      <c r="B501" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>